--- a/Data/Simul/Test3/Calib_3.xlsx
+++ b/Data/Simul/Test3/Calib_3.xlsx
@@ -532,88 +532,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407495020632299</v>
+        <v>0.1424258772403308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1435576950625593</v>
+        <v>0.1432018460930703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1437655923439867</v>
+        <v>0.1421183570004869</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1685820098247993</v>
+        <v>0.1417752594847197</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1957718578398426</v>
+        <v>0.1450621386414188</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2014992361854857</v>
+        <v>0.147356743103736</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1984657809816665</v>
+        <v>0.1597300848723537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1897520901935345</v>
+        <v>0.199960856098367</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1933386683043</v>
+        <v>0.2066783596664191</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1906625820362967</v>
+        <v>0.2070677052724139</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1781138090461249</v>
+        <v>0.2187150858345233</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1892904637544753</v>
+        <v>0.1909360185064309</v>
       </c>
       <c r="N2" t="n">
-        <v>0.214151563674194</v>
+        <v>0.2016071716896329</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2159722866075156</v>
+        <v>0.2388548078388471</v>
       </c>
       <c r="P2" t="n">
-        <v>0.142151443216941</v>
+        <v>0.2616349430697706</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2011954181255164</v>
+        <v>0.2820328661462317</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2254384718551256</v>
+        <v>0.3185899095595585</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2130866136123542</v>
+        <v>0.4159516412492671</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3106181401128885</v>
+        <v>0.4613274109161066</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2904932087151763</v>
+        <v>0.5461997979151091</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3731479124696254</v>
+        <v>0.453681167196092</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5601303201798711</v>
+        <v>0.6707995066391781</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6315712256476054</v>
+        <v>0.6106724224973391</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7342315164936578</v>
+        <v>0.3289768745678217</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7469049189928537</v>
+        <v>0.1301957421329751</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.7795441844567159</v>
+        <v>0.05052743614232137</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7468427207750086</v>
+        <v>0.3596399351913906</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6598189419889329</v>
+        <v>0.5480427454551051</v>
       </c>
     </row>
     <row r="3">
@@ -623,88 +623,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494235391239664</v>
+        <v>0.1448855396047723</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1410068960444937</v>
+        <v>0.1432209845287222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1418438844809267</v>
+        <v>0.1469812912347331</v>
       </c>
       <c r="E3" t="n">
-        <v>0.103026300761567</v>
+        <v>0.149037773233783</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05464242649090884</v>
+        <v>0.1393957431066362</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03913648905139851</v>
+        <v>0.1398964922072814</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05671625267008967</v>
+        <v>0.1242586791725255</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08380906172069424</v>
+        <v>0.03214735584554743</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08859426082380885</v>
+        <v>0.03773381949398357</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05190798788703108</v>
+        <v>0.06221504498456699</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03357907127540811</v>
+        <v>0.0470584192687445</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06189445343602346</v>
+        <v>0.01656148827852308</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06394420299204566</v>
+        <v>0.01071786844685162</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02191956078598385</v>
+        <v>0.02118735906025311</v>
       </c>
       <c r="P3" t="n">
-        <v>0.008700167330311849</v>
+        <v>0.01301102587595115</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02455198041437926</v>
+        <v>0.006507689299582228</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05464783375707627</v>
+        <v>0.004102485297505738</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1182564006037271</v>
+        <v>0.01101505961288673</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06494028734255514</v>
+        <v>0.006868075414638287</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00588542735562161</v>
+        <v>0.009905172186338886</v>
       </c>
       <c r="V3" t="n">
-        <v>0.007373106201846194</v>
+        <v>0.0006802851086135067</v>
       </c>
       <c r="W3" t="n">
-        <v>0.006822346315328704</v>
+        <v>0.001809318419111043</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001810019389734176</v>
+        <v>0.000374398898416276</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002620871006127929</v>
+        <v>4.417971147230423e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.006411080345887606</v>
+        <v>2.54640998414683e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0009931642684808187</v>
+        <v>3.448653700803366e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001161829557151056</v>
+        <v>1.696872738462874e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.246908818045542e-05</v>
+        <v>1.170543029571949e-08</v>
       </c>
     </row>
     <row r="4">
@@ -714,88 +714,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494235493712611</v>
+        <v>0.1448855420831344</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1410068929155071</v>
+        <v>0.1432209837227479</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1418438812991811</v>
+        <v>0.1469812958475037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1030269113992171</v>
+        <v>0.1490377800107327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0546433338597394</v>
+        <v>0.1393957346625834</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03913729037574625</v>
+        <v>0.1398967669648133</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05671726039301372</v>
+        <v>0.124259350574515</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08381036621815061</v>
+        <v>0.03214802565733172</v>
       </c>
       <c r="J4" t="n">
-        <v>0.079786646059317</v>
+        <v>0.03773466612397372</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09821947898213075</v>
+        <v>0.06221635067690191</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1102726161376255</v>
+        <v>0.06656425698043088</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0936164909688753</v>
+        <v>0.08554239458778307</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0842812525013148</v>
+        <v>0.08768073160099024</v>
       </c>
       <c r="O4" t="n">
-        <v>0.108736277674022</v>
+        <v>0.07592269448756821</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12006952106706</v>
+        <v>0.07787483017314004</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1056146975524868</v>
+        <v>0.08222300154265727</v>
       </c>
       <c r="R4" t="n">
-        <v>0.08507575322812107</v>
+        <v>0.08282918341326485</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05039047996987447</v>
+        <v>0.06145205433264249</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04860821176318682</v>
+        <v>0.06171020665254115</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09871460550659854</v>
+        <v>0.03946312048217065</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06677992615560113</v>
+        <v>0.0859449771964597</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01548024447594452</v>
+        <v>0.01699147404569711</v>
       </c>
       <c r="X4" t="n">
-        <v>0.007220863046896802</v>
+        <v>0.02650416617199465</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001438112858569232</v>
+        <v>0.1115868406902563</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0004569054992263689</v>
+        <v>0.1560937799774011</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.22706638561781e-05</v>
+        <v>0.1682182563120722</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.788538938841235e-06</v>
+        <v>0.05358559709910842</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.091107964395247e-07</v>
+        <v>0.007941114698270035</v>
       </c>
     </row>
     <row r="5">
@@ -805,88 +805,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494274069555787</v>
+        <v>0.1448864749913092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1410057149989314</v>
+        <v>0.1432206801863955</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1418426834036497</v>
+        <v>0.1469830321388652</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1030153242768643</v>
+        <v>0.1490403308942659</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05462698733202147</v>
+        <v>0.1393925556556324</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03912293540674683</v>
+        <v>0.1398886236287434</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05669914102945231</v>
+        <v>0.1242446453818047</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08378681776234817</v>
+        <v>0.03213554884535208</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08550972888191612</v>
+        <v>0.03771896482814625</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08380860691550816</v>
+        <v>0.0621920389591649</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07791988908335848</v>
+        <v>0.06558967735344567</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08333375898524856</v>
+        <v>0.05664848888813565</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0947051727795714</v>
+        <v>0.05973399568678599</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09625812395178283</v>
+        <v>0.07134522212290093</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0639158379886023</v>
+        <v>0.0780557640216739</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08953969591511771</v>
+        <v>0.08430958282370854</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09960398977366154</v>
+        <v>0.09528473528002787</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09319275881523946</v>
+        <v>0.1229931622034797</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1325926691159441</v>
+        <v>0.1366496806161318</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1594593445478784</v>
+        <v>0.1601330804180968</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1879413154438764</v>
+        <v>0.1693898796208955</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2491430250636115</v>
+        <v>0.195131898736248</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2648247284748232</v>
+        <v>0.2129234173618318</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2212232697869578</v>
+        <v>0.1536963103261252</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1854786293612674</v>
+        <v>0.09831814782344266</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2089637712197327</v>
+        <v>0.07122475913964307</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2517096426448583</v>
+        <v>0.3371847762287002</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3398903087335631</v>
+        <v>0.4031467799781779</v>
       </c>
     </row>
     <row r="6">
@@ -896,88 +896,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330509811295149</v>
+        <v>0.139591414367833</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1455112308467617</v>
+        <v>0.1418213974543925</v>
       </c>
       <c r="D6" t="n">
-        <v>0.143756567845974</v>
+        <v>0.1360689520579823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1768814152606747</v>
+        <v>0.1326532207616799</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2216834459085054</v>
+        <v>0.1468724560631576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2388519537477718</v>
+        <v>0.1439798531357232</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2160421032772545</v>
+        <v>0.1551295764047904</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1848167534191273</v>
+        <v>0.2516756732220514</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1744350262255055</v>
+        <v>0.2369930334217906</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2201362225824521</v>
+        <v>0.2008896154802024</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2527552005508689</v>
+        <v>0.2140543468627892</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2092715465964352</v>
+        <v>0.2873137015270351</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1823550563234764</v>
+        <v>0.290635453006334</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2413958294571124</v>
+        <v>0.2423301814762141</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3215453468318377</v>
+        <v>0.2433197476383098</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2489309628731019</v>
+        <v>0.2459954281858051</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1833137446895452</v>
+        <v>0.2282596527629942</v>
       </c>
       <c r="S6" t="n">
-        <v>0.09567789726348742</v>
+        <v>0.1434305237105147</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1094449681645555</v>
+        <v>0.128715739627083</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2146234257804154</v>
+        <v>0.06652693337195471</v>
       </c>
       <c r="V6" t="n">
-        <v>0.178872990607341</v>
+        <v>0.1255246521412855</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08580511390836849</v>
+        <v>0.04883811007132276</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05707863283996416</v>
+        <v>0.07992271476198531</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01173584890999136</v>
+        <v>0.1845742846212224</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.003834246344493415</v>
+        <v>0.2837729430123699</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0004669139728383904</v>
+        <v>0.3214906712319956</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.642204309533361e-05</v>
+        <v>0.1099180372994368</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.124764558397508e-06</v>
+        <v>0.01749737696107362</v>
       </c>
     </row>
     <row r="7">
@@ -987,88 +987,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.144493746115304</v>
+        <v>0.1435783244425455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1424860789529989</v>
+        <v>0.1433900809541114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1431422736862201</v>
+        <v>0.1444584228128055</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1687391419418205</v>
+        <v>0.1452911251623035</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1975720455986929</v>
+        <v>0.1430105117523345</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2043504459403557</v>
+        <v>0.1448349829160667</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1996378901105588</v>
+        <v>0.1570079485763198</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1888723123418899</v>
+        <v>0.2016979591346231</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2034749789321322</v>
+        <v>0.20679565810679</v>
       </c>
       <c r="K7" t="n">
-        <v>0.134983103017577</v>
+        <v>0.2040450939216147</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09484560913532622</v>
+        <v>0.1733764589643007</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1531469984125827</v>
+        <v>0.0757905117840766</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1776217279103841</v>
+        <v>0.05880266276564827</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07417174906304579</v>
+        <v>0.1072138260636723</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03085145038410642</v>
+        <v>0.08156869548919182</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08357687707287356</v>
+        <v>0.04992527196014521</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1679709365217122</v>
+        <v>0.03680898257631564</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3316286976616561</v>
+        <v>0.09444824061162709</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2337368850003673</v>
+        <v>0.06687762188432564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02684293295905183</v>
+        <v>0.1042343223739597</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03781825907037283</v>
+        <v>0.01003680527304709</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0391520697581303</v>
+        <v>0.02800927417314061</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01457272499859833</v>
+        <v>0.006905797044918939</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02392965125601659</v>
+        <v>0.0009359089155683524</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0553081104878489</v>
+        <v>8.421833015303065e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009775224006134229</v>
+        <v>1.470129696231927e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.001274439038598674</v>
+        <v>8.797623413388933e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0002665015783586825</v>
+        <v>7.975389381103701e-07</v>
       </c>
     </row>
     <row r="8">
@@ -1078,88 +1078,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.133431275241145</v>
+        <v>0.1397468272700748</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1454254911787479</v>
+        <v>0.1419240270605602</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1438051169400618</v>
+        <v>0.1364086489076231</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1767288965350571</v>
+        <v>0.1331645104525154</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210599029702895</v>
+        <v>0.1468708601182372</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2379016492924952</v>
+        <v>0.144146538043636</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2157215715379645</v>
+        <v>0.1553697150176908</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1851525983442554</v>
+        <v>0.2502345811967273</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1748606907730203</v>
+        <v>0.2363454983588968</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2202820185790042</v>
+        <v>0.2013741507051353</v>
       </c>
       <c r="L8" t="n">
-        <v>0.252513804771288</v>
+        <v>0.2146417547357656</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2094462878463594</v>
+        <v>0.2872073964280155</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1829410238190136</v>
+        <v>0.290822116803757</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2415461724605376</v>
+        <v>0.2431459089505443</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3127662331811408</v>
+        <v>0.2445349937319629</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2465903680465243</v>
+        <v>0.2490061600418701</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1839492701747582</v>
+        <v>0.2341250511103333</v>
       </c>
       <c r="S8" t="n">
-        <v>0.09776715207366141</v>
+        <v>0.1507093182795821</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1000588385005026</v>
+        <v>0.1378512648891735</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2039810551352579</v>
+        <v>0.07353757325237026</v>
       </c>
       <c r="V8" t="n">
-        <v>0.148066490051337</v>
+        <v>0.1547422334636067</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04346688029874533</v>
+        <v>0.03842041791530224</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02292180560237813</v>
+        <v>0.06269708326351399</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004820729688679146</v>
+        <v>0.2201856011675337</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.001606108968422722</v>
+        <v>0.3316107105797976</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002044714122418093</v>
+        <v>0.3885387267123444</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.680400378520194e-05</v>
+        <v>0.1396707574502953</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.447356100556573e-07</v>
+        <v>0.023371173663005</v>
       </c>
     </row>
   </sheetData>
@@ -1274,88 +1274,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1391664849582982</v>
+        <v>0.1462353228872266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1417090228794613</v>
+        <v>0.1473757349072985</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1439939108775122</v>
+        <v>0.1492560005394321</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1590816332593692</v>
+        <v>0.1499419904709352</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1318502370167859</v>
+        <v>0.1507188981535477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14699122188543</v>
+        <v>0.1532702914655147</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09096043060311136</v>
+        <v>0.1755002906938337</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1167190778705646</v>
+        <v>0.1839365715147243</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1133251297131102</v>
+        <v>0.1979350371163908</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1318757558033485</v>
+        <v>0.1932200500251349</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1547406306243631</v>
+        <v>0.1884896738965144</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1344397073493154</v>
+        <v>0.1778563712343069</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1564224579555495</v>
+        <v>0.08263181128019897</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09647399936390393</v>
+        <v>0.04323847369809589</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07662950606153729</v>
+        <v>0.0269383943805124</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1303443947029953</v>
+        <v>0.01452898161394313</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07409346717199887</v>
+        <v>0.009596280409661921</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03006265625642452</v>
+        <v>0.005699211392214717</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1089527901667156</v>
+        <v>0.01605121397281568</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05163908982372326</v>
+        <v>0.002836939384027972</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0253692681137985</v>
+        <v>0.001220794700125139</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01286641670001185</v>
+        <v>0.0003666499895108946</v>
       </c>
       <c r="X2" t="n">
-        <v>0.009173549630544228</v>
+        <v>0.00018130650463821</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02007597621832014</v>
+        <v>6.517412395600389e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01158978289822802</v>
+        <v>7.081375711679491e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004012855182118281</v>
+        <v>4.65519679983991e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01177670268051325</v>
+        <v>3.289267253325457e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.001668590199654139</v>
+        <v>9.318097677473535e-08</v>
       </c>
     </row>
     <row r="3">
@@ -1365,88 +1365,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1535091887721334</v>
+        <v>0.130487730951668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1452535697005149</v>
+        <v>0.1266293507152955</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1356838857852431</v>
+        <v>0.1125852720396066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1067404365429815</v>
+        <v>0.1090227695401656</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1558679662987765</v>
+        <v>0.1131035312927419</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1463965704660908</v>
+        <v>0.1177600010093539</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2243480971871365</v>
+        <v>0.07687561153807218</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1865051050782331</v>
+        <v>0.04945109138179916</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2187614613780545</v>
+        <v>0.04086774635690375</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1495615050534306</v>
+        <v>0.07273868927515159</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1494649375431144</v>
+        <v>0.1190607984764567</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2372661008670073</v>
+        <v>0.1615253157325631</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2118946627375814</v>
+        <v>0.3154823371985964</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4155183602731074</v>
+        <v>0.3751666370559376</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4839456016271811</v>
+        <v>0.4222369528166898</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3120708893682161</v>
+        <v>0.4672213207858964</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5069703451423058</v>
+        <v>0.491154647916536</v>
       </c>
       <c r="S3" t="n">
-        <v>0.627397098755602</v>
+        <v>0.4973914153881319</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4490145758164705</v>
+        <v>0.4516374654183195</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5729037598058824</v>
+        <v>0.5406110790716093</v>
       </c>
       <c r="V3" t="n">
-        <v>0.649743518804864</v>
+        <v>0.5785614544245141</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6674204760389214</v>
+        <v>0.6308429890648881</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6831879926682919</v>
+        <v>0.6518796286755232</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6418430168248077</v>
+        <v>0.6847446326476569</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6669554072042414</v>
+        <v>0.7241368436505285</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.7010269220410708</v>
+        <v>0.6805039015555067</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.6787118898474437</v>
+        <v>0.7448086021932886</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6684324618370302</v>
+        <v>0.7358278998092087</v>
       </c>
     </row>
     <row r="4">
@@ -1456,88 +1456,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1535092062511403</v>
+        <v>0.130487713567652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1452535745346486</v>
+        <v>0.1266293278262943</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1356838778148711</v>
+        <v>0.112585234762875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1067407490987323</v>
+        <v>0.1090227283186913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1558677901132902</v>
+        <v>0.1131034914460054</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1463972499557411</v>
+        <v>0.1177601757785648</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2243471052637718</v>
+        <v>0.07687619465721297</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1865049083326526</v>
+        <v>0.04945168281477013</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1701481927527432</v>
+        <v>0.04086850845301011</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1944733984381363</v>
+        <v>0.07273988682148612</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1673274048484259</v>
+        <v>0.05593027720516174</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1412493426766172</v>
+        <v>0.03899645674755204</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1149733780710879</v>
+        <v>0.009586484484987418</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05542723928356035</v>
+        <v>0.003123175487946588</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03836958701850404</v>
+        <v>0.001529822642640353</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0898257625769117</v>
+        <v>0.0006463934277280285</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03804194152337328</v>
+        <v>0.0003499954259391791</v>
       </c>
       <c r="S4" t="n">
-        <v>0.009333820187688179</v>
+        <v>0.0001394559249132897</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01889178323413029</v>
+        <v>0.0007307820250143845</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004443897824149001</v>
+        <v>6.991100178723413e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001398854511313176</v>
+        <v>1.853642946039145e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0003337682765420855</v>
+        <v>3.025181198009703e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0001716524062265654</v>
+        <v>8.21501984448676e-07</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.048819510915556e-05</v>
+        <v>1.39686195097161e-07</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.953139802173081e-05</v>
+        <v>4.330615314676184e-09</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.321717612124248e-06</v>
+        <v>5.296678306543175e-10</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.170508285964241e-07</v>
+        <v>1.429870092399161e-11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.280988815094319e-08</v>
+        <v>5.387601333072272e-13</v>
       </c>
     </row>
     <row r="5">
@@ -1547,88 +1547,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.153515786292536</v>
+        <v>0.1304811695714025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1452553944363968</v>
+        <v>0.1266207115603023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1356808776445419</v>
+        <v>0.1125712029049952</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1067328145744983</v>
+        <v>0.1090072116407276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1558672628762862</v>
+        <v>0.1130884919799281</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1463819806665086</v>
+        <v>0.1177407775848757</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2243592538579716</v>
+        <v>0.0768553319343276</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1865040296651393</v>
+        <v>0.04943448117601414</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1814103812848893</v>
+        <v>0.04084951510046252</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2104439206547387</v>
+        <v>0.07270885724785339</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2477148664766305</v>
+        <v>0.07140428516892168</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2154764577375257</v>
+        <v>0.06791267619671919</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2528607275012536</v>
+        <v>0.03214778570206021</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1549438982054129</v>
+        <v>0.01704250509165244</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1226818747818876</v>
+        <v>0.01068927449732962</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2110218987387958</v>
+        <v>0.005732074820547793</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1190925065969661</v>
+        <v>0.003769287139354721</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04770093278951559</v>
+        <v>0.002219732349574067</v>
       </c>
       <c r="T5" t="n">
-        <v>0.175386647453297</v>
+        <v>0.006339282708205941</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07277920432826919</v>
+        <v>0.001102879445774188</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03306974716142955</v>
+        <v>0.0004351086985285486</v>
       </c>
       <c r="W5" t="n">
-        <v>0.014762104458267</v>
+        <v>0.0001165983597686086</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01002894223300085</v>
+        <v>5.240592614501732e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01408034127108115</v>
+        <v>1.663604250120243e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00738175962283871</v>
+        <v>1.390510413582437e-06</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00213048223977217</v>
+        <v>6.701196476316845e-07</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00356719181515253</v>
+        <v>3.679903327326626e-08</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.000406488137486525</v>
+        <v>7.202227892107218e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1638,88 +1638,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1272423623305174</v>
+        <v>0.1619709888500493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1396805863871278</v>
+        <v>0.1678517990172544</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1547978109560049</v>
+        <v>0.1916100113715734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1830689810468299</v>
+        <v>0.1974343033973722</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1366362513998173</v>
+        <v>0.1891912783947706</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136321567139653</v>
+        <v>0.1799211809014021</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0747260756207391</v>
+        <v>0.22012015280967</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1059791022697616</v>
+        <v>0.253047070030688</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09603835782785207</v>
+        <v>0.2527969315475727</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1072753802918078</v>
+        <v>0.2100575714344032</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08624257138697623</v>
+        <v>0.1573076998050014</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07261721987333498</v>
+        <v>0.1058699569477598</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05662673216613449</v>
+        <v>0.02436606641414131</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02584990903562918</v>
+        <v>0.007529203103777714</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01727065600781082</v>
+        <v>0.003589412581522675</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0384392326827283</v>
+        <v>0.001426605587829488</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01515924539140245</v>
+        <v>0.0007321572428488911</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003320557725145389</v>
+        <v>0.0002610069396680102</v>
       </c>
       <c r="T6" t="n">
-        <v>0.00869666324020154</v>
+        <v>0.001556698344542039</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002447310196345811</v>
+        <v>0.0001302905898295576</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0008713283423947784</v>
+        <v>3.936393456355626e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0002571311300188183</v>
+        <v>7.527508033639613e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001467299836913732</v>
+        <v>2.442955323057286e-06</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.30636394512498e-05</v>
+        <v>5.153794507417027e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.73858308252052e-05</v>
+        <v>2.132268335027278e-08</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.122137975581076e-06</v>
+        <v>2.698072673411231e-09</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.913775473299726e-07</v>
+        <v>7.393055510116562e-11</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.269093012635975e-08</v>
+        <v>2.909326643442451e-12</v>
       </c>
     </row>
     <row r="7">
@@ -1729,88 +1729,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1452440872369973</v>
+        <v>0.1391818167751642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1430965210894241</v>
+        <v>0.1380892654061273</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1399928238527731</v>
+        <v>0.1321137158684206</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1556762200004747</v>
+        <v>0.130740982764225</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1276979614400661</v>
+        <v>0.1335594759134845</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1410998291245725</v>
+        <v>0.1350796172747727</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08623567038556179</v>
+        <v>0.1557907626759793</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1117047437348982</v>
+        <v>0.1647571634633232</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1241379570976697</v>
+        <v>0.1763307313436167</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09874289339375444</v>
+        <v>0.1695161662104137</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1075375655153288</v>
+        <v>0.2509821290923839</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1257064436450935</v>
+        <v>0.3420262327580084</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1499302934400394</v>
+        <v>0.5113185609359483</v>
       </c>
       <c r="O7" t="n">
-        <v>0.225433199031576</v>
+        <v>0.546311024873866</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2434062549724076</v>
+        <v>0.5313912072783566</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1784262182831614</v>
+        <v>0.508991322991677</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2307588842566031</v>
+        <v>0.4936460057839481</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2786500522875377</v>
+        <v>0.4940168992192754</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2312625903338657</v>
+        <v>0.5220867672032077</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2938442155529388</v>
+        <v>0.4551126776156311</v>
       </c>
       <c r="V7" t="n">
-        <v>0.288910543106309</v>
+        <v>0.4196870532476727</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3041971661548976</v>
+        <v>0.3686567358994042</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2972043063391754</v>
+        <v>0.347881528594122</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3238551304368965</v>
+        <v>0.3151725613437747</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3140255467253729</v>
+        <v>0.2758546472424035</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2928239804099204</v>
+        <v>0.3194907684010583</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3059431602021779</v>
+        <v>0.2551910319512079</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3294924260143861</v>
+        <v>0.2641719998024542</v>
       </c>
     </row>
     <row r="8">
@@ -1820,88 +1820,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1278128841583774</v>
+        <v>0.1611552573968373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1397513309724266</v>
+        <v>0.1668038105674277</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1541668130690537</v>
+        <v>0.1892785625130973</v>
       </c>
       <c r="E8" t="n">
-        <v>0.181959165477114</v>
+        <v>0.1948300138678833</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1362125308549778</v>
+        <v>0.187234832819522</v>
       </c>
       <c r="G8" t="n">
-        <v>0.136411580762004</v>
+        <v>0.1784679559855161</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07502336708170798</v>
+        <v>0.2179816556909043</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1060830330487505</v>
+        <v>0.2499219396186809</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09617851994568093</v>
+        <v>0.2503515300820435</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1076271463647836</v>
+        <v>0.2090187789855571</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08697202360516108</v>
+        <v>0.1568251363555602</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0732447278511059</v>
+        <v>0.1058129903830904</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05729174812835355</v>
+        <v>0.02446695398406754</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02635339480681024</v>
+        <v>0.007588980688723691</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01769651953067173</v>
+        <v>0.003624935802948578</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03987160364719131</v>
+        <v>0.001453300772378039</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01588360991735057</v>
+        <v>0.0007516260817112073</v>
       </c>
       <c r="S8" t="n">
-        <v>0.003534881998086493</v>
+        <v>0.0002722787862224791</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007794949755319423</v>
+        <v>0.00159779032789474</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001942522468691368</v>
+        <v>0.0001362228913405209</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0006367399598908558</v>
+        <v>3.768856513550121e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0001629372413412257</v>
+        <v>6.47399719652657e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>8.682673906964497e-05</v>
+        <v>1.865842263935492e-06</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.198341433409952e-05</v>
+        <v>3.407764651507747e-07</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.058632047202041e-05</v>
+        <v>1.156764410286446e-08</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.316271530619218e-06</v>
+        <v>1.499247075219296e-09</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.470263369464789e-07</v>
+        <v>4.151547663763432e-11</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.310624929319817e-09</v>
+        <v>1.684349125812027e-12</v>
       </c>
     </row>
   </sheetData>
@@ -2016,88 +2016,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1407098109466433</v>
+        <v>0.1419437979124447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1421871286199376</v>
+        <v>0.1441941260560703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1425469187477869</v>
+        <v>0.1469430780004287</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1626973773406807</v>
+        <v>0.1454519826282688</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1490817596819598</v>
+        <v>0.1444114740450717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1655832403687317</v>
+        <v>0.150641930770219</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1856519396935784</v>
+        <v>0.1678871551905199</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1963437594828693</v>
+        <v>0.1814960726389668</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2108553729173115</v>
+        <v>0.2038497578494881</v>
       </c>
       <c r="K2" t="n">
-        <v>0.235015539081515</v>
+        <v>0.1878976897575093</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2582670990762977</v>
+        <v>0.1838125072801479</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2590351299099622</v>
+        <v>0.1915164989337452</v>
       </c>
       <c r="N2" t="n">
-        <v>0.176769899787655</v>
+        <v>0.202175821562622</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1281137889492957</v>
+        <v>0.2476410998865534</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08896916019805086</v>
+        <v>0.261131782077731</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07457907582148017</v>
+        <v>0.25042372256042</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05532273919947706</v>
+        <v>0.3338723337807976</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02040655869662485</v>
+        <v>0.4020801663740536</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03741051755126645</v>
+        <v>0.2543525614017736</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01938057747403544</v>
+        <v>0.1523911043559258</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02113300897738796</v>
+        <v>0.140486102319772</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01109175348573742</v>
+        <v>0.1177924673901722</v>
       </c>
       <c r="X2" t="n">
-        <v>0.006611102758177046</v>
+        <v>0.0506323762359523</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.006780323333846141</v>
+        <v>0.03376759890930276</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001968459375714063</v>
+        <v>0.01867066142106879</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.838890596677367e-05</v>
+        <v>0.00893378077133653</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.308547843798132e-06</v>
+        <v>0.005497949991820003</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.579784939708981e-08</v>
+        <v>0.003617013242677602</v>
       </c>
     </row>
     <row r="3">
@@ -2107,88 +2107,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1494582022075891</v>
+        <v>0.1458070863666606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1447320723155272</v>
+        <v>0.139035990104557</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1458694504060308</v>
+        <v>0.1313473332902416</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1107117208955143</v>
+        <v>0.1375140193054418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133991976414467</v>
+        <v>0.1413626618186135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1056350501270045</v>
+        <v>0.1384702643499036</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07361513897359799</v>
+        <v>0.1062852465024285</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04236247642864836</v>
+        <v>0.07361330151956298</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01367165779284446</v>
+        <v>0.049827097351793</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009954310822320697</v>
+        <v>0.08713184485033353</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01768660189590381</v>
+        <v>0.1276109203874408</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004841630591515453</v>
+        <v>0.07571381350145635</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001288822765810112</v>
+        <v>0.0318492596314102</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0004858192905906122</v>
+        <v>0.01962651416191505</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002030124020046721</v>
+        <v>0.0483549318452394</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.105077405873133e-05</v>
+        <v>0.03674582135310438</v>
       </c>
       <c r="R3" t="n">
-        <v>2.118272351603953e-05</v>
+        <v>0.02304208631593348</v>
       </c>
       <c r="S3" t="n">
-        <v>3.06805584042228e-06</v>
+        <v>0.006224605966864251</v>
       </c>
       <c r="T3" t="n">
-        <v>1.738086869299396e-05</v>
+        <v>0.002673748457924138</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1129251698513e-06</v>
+        <v>0.0007491033999300451</v>
       </c>
       <c r="V3" t="n">
-        <v>6.041584631689038e-07</v>
+        <v>0.0002340517808190512</v>
       </c>
       <c r="W3" t="n">
-        <v>1.827032624583539e-07</v>
+        <v>0.0001525657958156005</v>
       </c>
       <c r="X3" t="n">
-        <v>7.327706854055459e-08</v>
+        <v>3.033189115777756e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.005317701740324e-09</v>
+        <v>1.453625308990142e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.762739369005867e-11</v>
+        <v>5.549222448973904e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.754417311996241e-13</v>
+        <v>1.929186275930806e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.328500756915688e-14</v>
+        <v>9.561736348964553e-07</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.722267775264328e-16</v>
+        <v>5.411559554085059e-07</v>
       </c>
     </row>
     <row r="4">
@@ -2198,88 +2198,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1494582126047027</v>
+        <v>0.1458070908668458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1447320754519901</v>
+        <v>0.1390359839980493</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1458694531974659</v>
+        <v>0.1313473148475238</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1107121349717645</v>
+        <v>0.137514008839289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1339920744099585</v>
+        <v>0.141362656638725</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1056354808405338</v>
+        <v>0.1384710052561011</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07361583017087418</v>
+        <v>0.1062861291243915</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04236309524175949</v>
+        <v>0.0736141648663072</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05192544161579165</v>
+        <v>0.04982807047744702</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05117181689374376</v>
+        <v>0.08713309834082442</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04441781389229955</v>
+        <v>0.06302197068707725</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05317348782848464</v>
+        <v>0.08739014996079511</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06208116919835844</v>
+        <v>0.1114323629543263</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06269760318893891</v>
+        <v>0.1079721346811395</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06065105320670039</v>
+        <v>0.08434237899889235</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.06400237096944519</v>
+        <v>0.09282605353538938</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06099243215831739</v>
+        <v>0.08610319170824038</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05188087695528747</v>
+        <v>0.08352092804787978</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04492719465056711</v>
+        <v>0.1121461930335968</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04583807937171913</v>
+        <v>0.1281376119553937</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03537282858410293</v>
+        <v>0.1104803867833457</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04530788286519032</v>
+        <v>0.1217358347568015</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05521303241326567</v>
+        <v>0.1394872448846329</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0520401839248749</v>
+        <v>0.1646635816008623</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04918162325258955</v>
+        <v>0.2051739015407602</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05323474973409311</v>
+        <v>0.2173606478057032</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04573707291095222</v>
+        <v>0.2235216521405137</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01025688636576148</v>
+        <v>0.2294145057789406</v>
       </c>
     </row>
     <row r="5">
@@ -2289,88 +2289,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1494621265988084</v>
+        <v>0.1458087849472159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144733256191022</v>
+        <v>0.139033685220007</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1458705038595461</v>
+        <v>0.1313403721536464</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1107057295732584</v>
+        <v>0.1375100687389769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1339913711356868</v>
+        <v>0.1413607064629818</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1056287464455383</v>
+        <v>0.1384560500356967</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07360430048767179</v>
+        <v>0.106269161821457</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0423525960348047</v>
+        <v>0.07359800727064718</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04517932057208249</v>
+        <v>0.04981033854072185</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05045595172186966</v>
+        <v>0.08710992458797862</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05581214620827731</v>
+        <v>0.08597686073859366</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05545222028775926</v>
+        <v>0.08890747350804926</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03730279152260702</v>
+        <v>0.09291386801133102</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02722830658636551</v>
+        <v>0.1140779417170868</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01902938634745415</v>
+        <v>0.1213888076505516</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01612709945344067</v>
+        <v>0.1167077304947682</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01201915068653992</v>
+        <v>0.155170384164993</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004501505858403627</v>
+        <v>0.1864065033872358</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007156488441772108</v>
+        <v>0.118949754907943</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004402127925981169</v>
+        <v>0.07212323567776462</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005598896972215288</v>
+        <v>0.07728923993390734</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003254501144739947</v>
+        <v>0.06728127241781856</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002092538233076092</v>
+        <v>0.03420678914480185</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003782888685628927</v>
+        <v>0.02422346066033794</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.003642531184801962</v>
+        <v>0.01443460925344676</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.440390720462281e-05</v>
+        <v>0.007484626004752375</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.387375394749277e-06</v>
+        <v>0.004867871362533006</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.117425087389461e-07</v>
+        <v>0.00333714475099943</v>
       </c>
     </row>
     <row r="6">
@@ -2380,88 +2380,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1330303548434384</v>
+        <v>0.1384157606513384</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1401303903411292</v>
+        <v>0.1484574005490154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1376608121339371</v>
+        <v>0.1596710992692001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1696687949967374</v>
+        <v>0.1499285961526584</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1487310756984522</v>
+        <v>0.1439643530557143</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1742965952802052</v>
+        <v>0.142338203438228</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2016837405135641</v>
+        <v>0.172982118358803</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2369988972663875</v>
+        <v>0.2078384512166444</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2914189517355474</v>
+        <v>0.2212034717240149</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2818667803164652</v>
+        <v>0.1819646554313067</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2382817734984038</v>
+        <v>0.1275744870217953</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2853259189413597</v>
+        <v>0.1828895974543314</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3530263641248356</v>
+        <v>0.2325434213813433</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3903384760220867</v>
+        <v>0.2169395502879022</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4208340547453956</v>
+        <v>0.1642912729018562</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4276379395907454</v>
+        <v>0.1905598254574706</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4440195601721468</v>
+        <v>0.1540595876987131</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4778337868206095</v>
+        <v>0.1381481339833703</v>
       </c>
       <c r="T6" t="n">
-        <v>0.500323831007257</v>
+        <v>0.2478367879626016</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5013890763232939</v>
+        <v>0.3241780162690844</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5596339469814103</v>
+        <v>0.3671908697412775</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5110674960688282</v>
+        <v>0.3690402167179866</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4663039786014028</v>
+        <v>0.3899939396876759</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4596004960774496</v>
+        <v>0.3625549261280812</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4555808911217583</v>
+        <v>0.3139267596590412</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4715843826638276</v>
+        <v>0.3204093459633089</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.4726106483307015</v>
+        <v>0.3229331893619843</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3946885406439785</v>
+        <v>0.3245284619275073</v>
       </c>
     </row>
     <row r="7">
@@ -2471,88 +2471,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1444733966196949</v>
+        <v>0.1436250447853153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432579453346183</v>
+        <v>0.1419805231677009</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1442306230643186</v>
+        <v>0.1402550321166</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1658535305638911</v>
+        <v>0.1422924598425393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1513091416622801</v>
+        <v>0.1434614415509518</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1689782686245591</v>
+        <v>0.1489353226962546</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1902971903281509</v>
+        <v>0.1673360064293412</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2034320929787498</v>
+        <v>0.1826959457871709</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09662385512549622</v>
+        <v>0.2045414713842089</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09034350167519276</v>
+        <v>0.1864265644193758</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1473735599985951</v>
+        <v>0.2838856123330115</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0569601115529098</v>
+        <v>0.1903509833417959</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01808660880613034</v>
+        <v>0.09602347354163483</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007543065477463961</v>
+        <v>0.07572052308881391</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003385511917971252</v>
+        <v>0.1550157873947405</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008468565915922574</v>
+        <v>0.1223778274168686</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004593624991880667</v>
+        <v>0.09077409393251352</v>
       </c>
       <c r="S7" t="n">
-        <v>7.353042067587597e-05</v>
+        <v>0.04122110417145182</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003862528200299714</v>
+        <v>0.01846127969851772</v>
       </c>
       <c r="U7" t="n">
-        <v>7.700791407876444e-05</v>
+        <v>0.005644333475122879</v>
       </c>
       <c r="V7" t="n">
-        <v>1.753913195999129e-05</v>
+        <v>0.001958397400751091</v>
       </c>
       <c r="W7" t="n">
-        <v>5.603370558847316e-06</v>
+        <v>0.001315073264721558</v>
       </c>
       <c r="X7" t="n">
-        <v>2.335835152041706e-06</v>
+        <v>0.0002802157233497821</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.048516644350232e-07</v>
+        <v>0.0001389029747427969</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.172522378172109e-09</v>
+        <v>5.491314257179265e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.713082782174585e-11</v>
+        <v>1.961363146930942e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.340675699597189e-13</v>
+        <v>9.897614696867834e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.473943278928618e-14</v>
+        <v>5.668667995467171e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2562,88 +2562,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1334078961791233</v>
+        <v>0.1385924344701793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1402271317457753</v>
+        <v>0.1482622909046002</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1379522385909144</v>
+        <v>0.1590957703223593</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1696507116581536</v>
+        <v>0.1497888644928258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489026009971953</v>
+        <v>0.1440767064279419</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1742426183134274</v>
+        <v>0.142687223453597</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2015318598325626</v>
+        <v>0.172954182573059</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2361470825667809</v>
+        <v>0.2071440567007006</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2903254002409263</v>
+        <v>0.2209397926723262</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2811920994888931</v>
+        <v>0.1823362226126717</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2381610054302228</v>
+        <v>0.1281176415519335</v>
       </c>
       <c r="M8" t="n">
-        <v>0.285211500888009</v>
+        <v>0.1832314832998268</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3514443437946034</v>
+        <v>0.2330617929173323</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3835929404852586</v>
+        <v>0.2180222361765891</v>
       </c>
       <c r="P8" t="n">
-        <v>0.406927821182423</v>
+        <v>0.165475039130989</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4167656067992375</v>
+        <v>0.190359019181979</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4271655725608148</v>
+        <v>0.156978322398809</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4453006731925582</v>
+        <v>0.1423985580691445</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4097783346604144</v>
+        <v>0.245579674537643</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4289100180657217</v>
+        <v>0.3167765948667786</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3782431751944603</v>
+        <v>0.3023609520401275</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4292725803616828</v>
+        <v>0.3226825696566839</v>
       </c>
       <c r="X8" t="n">
-        <v>0.4697769388818578</v>
+        <v>0.3853691024324296</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4777958971212182</v>
+        <v>0.4146369934735832</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4896264938549862</v>
+        <v>0.4477336057606623</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4750780747609016</v>
+        <v>0.4457900566371537</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4816485828343502</v>
+        <v>0.4431684833548172</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5950544054498764</v>
+        <v>0.4390966644759243</v>
       </c>
     </row>
   </sheetData>
@@ -2758,88 +2758,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1452105117012723</v>
+        <v>0.1421609467003312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1476487596793334</v>
+        <v>0.1392781700746756</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1479850147313629</v>
+        <v>0.1415631225086832</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1543903060046675</v>
+        <v>0.1450641281527914</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1705718393131661</v>
+        <v>0.1420055789457569</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1762593784128916</v>
+        <v>0.1653076484938526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1976142660557887</v>
+        <v>0.1812041887427397</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2060536993368474</v>
+        <v>0.1930192996425999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2303987981647506</v>
+        <v>0.1964479983876775</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2501599378199307</v>
+        <v>0.1868791135928377</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2673420577118384</v>
+        <v>0.1794326754139993</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2959937194895984</v>
+        <v>0.1511455050646202</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3542138953636152</v>
+        <v>0.1864842628815127</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3334170547637829</v>
+        <v>0.2020625469947212</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4104271656628726</v>
+        <v>0.1392496245047747</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.285523729103549</v>
+        <v>0.1908725519996373</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2949790491691515</v>
+        <v>0.1996658339941341</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3912831322200734</v>
+        <v>0.209882121481848</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4009740531954644</v>
+        <v>0.2677088368335796</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2719338870727076</v>
+        <v>0.3704922095087146</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1707437417623822</v>
+        <v>0.1350671600750817</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3445831081909629</v>
+        <v>0.1684699078767121</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6745873377021034</v>
+        <v>0.08466501773359388</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7176097453981513</v>
+        <v>0.1852886440939426</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5856248342162013</v>
+        <v>0.1764473987695917</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6718558583887505</v>
+        <v>0.5345684150324567</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7590277670673761</v>
+        <v>0.5913678545942874</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5418947436696514</v>
+        <v>0.8228054475726501</v>
       </c>
     </row>
     <row r="3">
@@ -2849,88 +2849,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1354338344374321</v>
+        <v>0.1453619082541392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1263872813402847</v>
+        <v>0.1546012497528297</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1280955777636775</v>
+        <v>0.1484064001031592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1218829206407799</v>
+        <v>0.1347147941598238</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08901153603926874</v>
+        <v>0.1470139571240375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09108821780509577</v>
+        <v>0.1047242908194725</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05797008498362622</v>
+        <v>0.06901552649889203</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06705431997108292</v>
+        <v>0.04160300700020882</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03572926300299515</v>
+        <v>0.05796900057113488</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03028429673100372</v>
+        <v>0.08648864640246179</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01472079968293049</v>
+        <v>0.04728671871825518</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009672246429623318</v>
+        <v>0.022553304031268</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008430574669667068</v>
+        <v>0.02433000933182064</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003017912700706614</v>
+        <v>0.04141483781460428</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01042742817883924</v>
+        <v>0.006514543432857983</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001986192750604343</v>
+        <v>0.00554048993701358</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0005258254796635894</v>
+        <v>0.001086703596153063</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003776259538188923</v>
+        <v>0.0001946532839523505</v>
       </c>
       <c r="T3" t="n">
-        <v>4.752584033581289e-05</v>
+        <v>0.0001641876088712745</v>
       </c>
       <c r="U3" t="n">
-        <v>1.455086980140401e-05</v>
+        <v>0.0001062081129536411</v>
       </c>
       <c r="V3" t="n">
-        <v>1.011080947508939e-06</v>
+        <v>1.817722702653088e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>4.863698651151263e-07</v>
+        <v>5.242082148278494e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>5.85586765749159e-07</v>
+        <v>1.223367937931454e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.899758511733215e-08</v>
+        <v>5.865503690622025e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.640109720617261e-09</v>
+        <v>2.15853908031211e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.50410839974939e-09</v>
+        <v>3.165028066335968e-07</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.211312070526827e-10</v>
+        <v>4.392900172610255e-08</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.450641597641461e-11</v>
+        <v>9.855599773427183e-08</v>
       </c>
     </row>
     <row r="4">
@@ -2940,88 +2940,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1354338230907142</v>
+        <v>0.1453619118206282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1263872575411925</v>
+        <v>0.1546012673182873</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1280955543706084</v>
+        <v>0.1484064071858315</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1218832933015017</v>
+        <v>0.1347147826686889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08901213819675655</v>
+        <v>0.1470139619919015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09108906704808553</v>
+        <v>0.1047247295479063</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05797106184469566</v>
+        <v>0.06901612329276371</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06705565880379737</v>
+        <v>0.0416036152290328</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07541100306374186</v>
+        <v>0.0579699273150743</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0748548060483301</v>
+        <v>0.08648986112957251</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0815291157418372</v>
+        <v>0.1075136939599015</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08107959626356553</v>
+        <v>0.1261564636746431</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07188779492220804</v>
+        <v>0.1168614781080692</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08256170573337289</v>
+        <v>0.1029504704564124</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06221759541248094</v>
+        <v>0.1396517859620744</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08968131637881679</v>
+        <v>0.138693208771653</v>
       </c>
       <c r="R4" t="n">
-        <v>0.09657264111589173</v>
+        <v>0.1449935213016273</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09299497533270221</v>
+        <v>0.1494239174258163</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08123610502348509</v>
+        <v>0.1520166453386355</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1270874539465476</v>
+        <v>0.1298164201499108</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1371961675064408</v>
+        <v>0.2853686720050412</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05949957570688394</v>
+        <v>0.2294064142139946</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003343410735640066</v>
+        <v>0.301980103589538</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0003684499078992971</v>
+        <v>0.2089863121262</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0001336058541196488</v>
+        <v>0.1196055723233681</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.036992710994839e-05</v>
+        <v>0.03425098509710046</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.678305901527479e-07</v>
+        <v>0.006858669734506699</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.092200535579799e-08</v>
+        <v>0.0006761089973583887</v>
       </c>
     </row>
     <row r="5">
@@ -3031,88 +3031,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1354295516726802</v>
+        <v>0.1453632543871233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1263782986312401</v>
+        <v>0.1546078797182247</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1280867481485101</v>
+        <v>0.1484090732859984</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1218680086877643</v>
+        <v>0.134710456956027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08899520663137504</v>
+        <v>0.1470157943172732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09106766620566709</v>
+        <v>0.1047184245878139</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05794981375074282</v>
+        <v>0.06900658931006408</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06702742939042601</v>
+        <v>0.04159352426188361</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07477489977730815</v>
+        <v>0.05795448073694714</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08122211660873593</v>
+        <v>0.08646975039419234</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08649399485743867</v>
+        <v>0.08244797549637646</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09570299765015509</v>
+        <v>0.06888032089760647</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1150320658361611</v>
+        <v>0.0854887739348108</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1090140455545101</v>
+        <v>0.09315957350323456</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1327141756674276</v>
+        <v>0.0628679207903219</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09378065237948753</v>
+        <v>0.0858501431262646</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09756181406863094</v>
+        <v>0.09012421222320731</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1294903092233222</v>
+        <v>0.09511031925384651</v>
       </c>
       <c r="T5" t="n">
-        <v>0.142562324892749</v>
+        <v>0.1213836492101075</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1090899621819271</v>
+        <v>0.1670002879492067</v>
       </c>
       <c r="V5" t="n">
-        <v>0.08982261431646842</v>
+        <v>0.07522882580399255</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1731923349657365</v>
+        <v>0.1025461599860036</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2578214355517826</v>
+        <v>0.05898513910515405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2743308839802882</v>
+        <v>0.1163291337814462</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.411130354263369</v>
+        <v>0.1313311944977662</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3278733666702354</v>
+        <v>0.2600165796049724</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2409559773690352</v>
+        <v>0.3649217842292061</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4581048983456374</v>
+        <v>0.172832265147536</v>
       </c>
     </row>
     <row r="6">
@@ -3122,88 +3122,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1539837235054982</v>
+        <v>0.1390002442236206</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1680079572148882</v>
+        <v>0.1251032514775082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1645365968345917</v>
+        <v>0.1340422712976802</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1677139553627447</v>
+        <v>0.1554508241743246</v>
       </c>
       <c r="F6" t="n">
-        <v>0.200993004749078</v>
+        <v>0.1361230485709749</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1925681904046573</v>
+        <v>0.1754570358087029</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2212335575088011</v>
+        <v>0.212330384208264</v>
       </c>
       <c r="I6" t="n">
-        <v>0.200044393722487</v>
+        <v>0.2409323390770857</v>
       </c>
       <c r="J6" t="n">
-        <v>0.223238833003478</v>
+        <v>0.2136604834637273</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2170886323964141</v>
+        <v>0.1813235047703588</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2337987597800526</v>
+        <v>0.2322596623090003</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2257532476732658</v>
+        <v>0.2842071608345353</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1903603557744447</v>
+        <v>0.2532035018946331</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2202671113679459</v>
+        <v>0.2178778893992861</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1460983828447165</v>
+        <v>0.3134526974370889</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.254258547610598</v>
+        <v>0.274354961068577</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2494504528433599</v>
+        <v>0.2747663386010011</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1841629938364373</v>
+        <v>0.2670787905957804</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1912755388410932</v>
+        <v>0.2204531803727972</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2297044839643934</v>
+        <v>0.157567418244048</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2937751036215095</v>
+        <v>0.1901023286365766</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2534561524584261</v>
+        <v>0.2143173251571846</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05021156441205341</v>
+        <v>0.2108960107598442</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.005942019947869664</v>
+        <v>0.2179802239793441</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002367898642014109</v>
+        <v>0.3239693211182076</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001959476261400229</v>
+        <v>0.09584854991321839</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.157327848243205e-05</v>
+        <v>0.02027947585739549</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.479241250077419e-07</v>
+        <v>0.002019649392542754</v>
       </c>
     </row>
     <row r="7">
@@ -3213,88 +3213,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1409549928501424</v>
+        <v>0.1435879571059009</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1382091141665078</v>
+        <v>0.1459964102976953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1394233441669667</v>
+        <v>0.1447266264720852</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1451885705322234</v>
+        <v>0.1404372668291686</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1616670442451332</v>
+        <v>0.144383681224819</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1660496746708562</v>
+        <v>0.1697233827442822</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1868739649028173</v>
+        <v>0.1878396959725433</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192539981324963</v>
+        <v>0.201517173439809</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1368725832525374</v>
+        <v>0.2025108239762807</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1286380572993615</v>
+        <v>0.1905616803864504</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08139198290970358</v>
+        <v>0.1187055687884803</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06464520058917059</v>
+        <v>0.06359620433253869</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06782596461779122</v>
+        <v>0.08038017490209311</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02919149050305163</v>
+        <v>0.1242479582562318</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08780499529242462</v>
+        <v>0.02548947106220816</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01996909532222541</v>
+        <v>0.02573422722387836</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006868692926094307</v>
+        <v>0.008033035608817317</v>
       </c>
       <c r="S7" t="n">
-        <v>0.005630793568139986</v>
+        <v>0.002265653131849925</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001029339856650583</v>
+        <v>0.002087887112202431</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003451184879475944</v>
+        <v>0.001733221651027119</v>
       </c>
       <c r="V7" t="n">
-        <v>2.999150413601217e-05</v>
+        <v>0.000310203504478513</v>
       </c>
       <c r="W7" t="n">
-        <v>1.820852405483771e-05</v>
+        <v>0.0001062942443757882</v>
       </c>
       <c r="X7" t="n">
-        <v>2.536193327149115e-05</v>
+        <v>2.681884650418407e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.731017408355466e-06</v>
+        <v>1.712629613500384e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.47583515837239e-07</v>
+        <v>6.885518092551204e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.377108988203728e-07</v>
+        <v>1.179892225182713e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.080116383617245e-07</v>
+        <v>1.835211880497085e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.469644893229433e-09</v>
+        <v>4.625788937907426e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3304,88 +3304,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1535535627422605</v>
+        <v>0.1391637775082566</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1669813314265534</v>
+        <v>0.1258117713607793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1637771639842827</v>
+        <v>0.1344460991465624</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1670729454703184</v>
+        <v>0.1549077470591757</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997492308252223</v>
+        <v>0.1364439778252371</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1918778054527464</v>
+        <v>0.1753444879979694</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2203872509535282</v>
+        <v>0.2115874919747333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2002245174503963</v>
+        <v>0.2397310413493801</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2235746197351888</v>
+        <v>0.2134872855491582</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2177521530962238</v>
+        <v>0.1817874433241266</v>
       </c>
       <c r="L8" t="n">
-        <v>0.234723289316199</v>
+        <v>0.2323537053139869</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2271529919046213</v>
+        <v>0.2834610411647881</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1922493488161128</v>
+        <v>0.2532517989470605</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2225306793766298</v>
+        <v>0.2182867235755097</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1503102569412384</v>
+        <v>0.312773956810674</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.254800466454719</v>
+        <v>0.2789544178729763</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2540415243972082</v>
+        <v>0.28133035467506</v>
       </c>
       <c r="S8" t="n">
-        <v>0.196060169865506</v>
+        <v>0.2760445448269067</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1828751123502219</v>
+        <v>0.2361856135238066</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2618245434766753</v>
+        <v>0.1732842343841391</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3084313702081156</v>
+        <v>0.313904632747803</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1692501337840704</v>
+        <v>0.285148656439581</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01401030407838347</v>
+        <v>0.3434456865974278</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001744080750798126</v>
+        <v>0.271397973172563</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0007429538006704349</v>
+        <v>0.2486394119190658</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.431817275687161e-05</v>
+        <v>0.07530335492719351</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.00562174656771e-06</v>
+        <v>0.01657033644372229</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.262442973174852e-08</v>
+        <v>0.001661804544977126</v>
       </c>
     </row>
   </sheetData>
@@ -3500,88 +3500,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450258706616232</v>
+        <v>0.1418947513361568</v>
       </c>
       <c r="C2" t="n">
-        <v>0.146040531134624</v>
+        <v>0.1427181199868922</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1438562760018361</v>
+        <v>0.1441652980393785</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1270002009068073</v>
+        <v>0.1433143753104968</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09691061945962282</v>
+        <v>0.1442035511148541</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1456900483792438</v>
+        <v>0.1487531969754264</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1664347256426404</v>
+        <v>0.1633688882482654</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1494012316613207</v>
+        <v>0.1535581917487594</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1419997633561439</v>
+        <v>0.1582101677857954</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1638440042978865</v>
+        <v>0.1671596104050071</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1697494299545443</v>
+        <v>0.1804371960921012</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1527426001517633</v>
+        <v>0.2022468632995991</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1859478613445582</v>
+        <v>0.195988243191599</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2070269196233972</v>
+        <v>0.2053839122873802</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1875894664925303</v>
+        <v>0.2045318321579538</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07679876945916002</v>
+        <v>0.2105449125063466</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04307805407658791</v>
+        <v>0.1800176443018273</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02016358892452515</v>
+        <v>0.1973843071660498</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05680065448243068</v>
+        <v>0.108044414322654</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02705783736774123</v>
+        <v>0.1683526052718563</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03906744127990511</v>
+        <v>0.2569240991520166</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02372496080238962</v>
+        <v>0.2918437752084114</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01538648071337709</v>
+        <v>0.2481131727811308</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002134854401395606</v>
+        <v>0.1837709851493522</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0002333717896176335</v>
+        <v>0.08079818275628071</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.718335313616714e-05</v>
+        <v>0.04606523465772943</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.284458396246791e-05</v>
+        <v>0.02204382457550065</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.914861750931328e-07</v>
+        <v>0.01275839512087301</v>
       </c>
     </row>
     <row r="3">
@@ -3591,88 +3591,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1362734764666019</v>
+        <v>0.1460833808348449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1315029084808448</v>
+        <v>0.1432634902118781</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1420466582871203</v>
+        <v>0.1395806510642872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.169332768785092</v>
+        <v>0.1429845111073206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2145636036337286</v>
+        <v>0.1394546644269341</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1433265698118822</v>
+        <v>0.1368793067911915</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1042604151091854</v>
+        <v>0.1096202673255958</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1365002936164235</v>
+        <v>0.1272707975943385</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2125679430888179</v>
+        <v>0.1134062610493893</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05376591573895758</v>
+        <v>0.09351412364140055</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1023405767947007</v>
+        <v>0.08241503031602407</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04870200260689489</v>
+        <v>0.06319950836891834</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03585865284403879</v>
+        <v>0.04799873902987899</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009054136715380029</v>
+        <v>0.0700101209833681</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00129840549018412</v>
+        <v>0.1136106173728003</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001944635846009097</v>
+        <v>0.1275199008214175</v>
       </c>
       <c r="R3" t="n">
-        <v>3.805756499367104e-05</v>
+        <v>0.1725322307427591</v>
       </c>
       <c r="S3" t="n">
-        <v>4.420390611970425e-06</v>
+        <v>0.1404712533960746</v>
       </c>
       <c r="T3" t="n">
-        <v>3.886903764368224e-05</v>
+        <v>0.2423522691745991</v>
       </c>
       <c r="U3" t="n">
-        <v>1.600894106987092e-06</v>
+        <v>0.1947221971116374</v>
       </c>
       <c r="V3" t="n">
-        <v>3.348583580656785e-07</v>
+        <v>0.1261229729716193</v>
       </c>
       <c r="W3" t="n">
-        <v>1.054258981985032e-07</v>
+        <v>0.07778154977439806</v>
       </c>
       <c r="X3" t="n">
-        <v>2.170107427167075e-08</v>
+        <v>0.03312155437499813</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.893633263355716e-09</v>
+        <v>0.01502207067115879</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.576461187484323e-11</v>
+        <v>0.003463313929608381</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.501773612135081e-12</v>
+        <v>0.001613241122826472</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.99144655574583e-13</v>
+        <v>0.0005746738544880082</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.826828723649215e-14</v>
+        <v>0.0002766701473302497</v>
       </c>
     </row>
     <row r="4">
@@ -3682,88 +3682,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1362734662132917</v>
+        <v>0.1460833856355669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1315028923184936</v>
+        <v>0.1432634908614724</v>
       </c>
       <c r="D4" t="n">
-        <v>0.142046654863659</v>
+        <v>0.1395806452854947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1693323292404242</v>
+        <v>0.1429845098508121</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2145623096202057</v>
+        <v>0.139454658425571</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433267703276292</v>
+        <v>0.1368797079313761</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1042609313360081</v>
+        <v>0.1096208735154754</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1365006099881313</v>
+        <v>0.1272712454749008</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09505016770122762</v>
+        <v>0.1134067275765123</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1758528056449825</v>
+        <v>0.09351468988947687</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1424685768448751</v>
+        <v>0.09433036635586589</v>
       </c>
       <c r="M4" t="n">
-        <v>0.184581369522205</v>
+        <v>0.09620550949399247</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1736526181026735</v>
+        <v>0.1056411150726871</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1886217756194347</v>
+        <v>0.09069379670723818</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2124720997550633</v>
+        <v>0.06513231527602376</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2343807466887391</v>
+        <v>0.05140200161326529</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2347435512498079</v>
+        <v>0.03703262793407956</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2335514074406948</v>
+        <v>0.04885010485598872</v>
       </c>
       <c r="T4" t="n">
-        <v>0.188423945211307</v>
+        <v>0.01022517865777185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.18767049590233</v>
+        <v>0.01486753309231277</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1428950856045849</v>
+        <v>0.02825455006494169</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1559950444132161</v>
+        <v>0.05452260512867708</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08659303613921983</v>
+        <v>0.122827600123314</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1006615002011619</v>
+        <v>0.1950149051988824</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0943756553812317</v>
+        <v>0.2479657868404352</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1247204597555784</v>
+        <v>0.2916083854477437</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1072155210302263</v>
+        <v>0.3203337541615594</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09479826498019339</v>
+        <v>0.3368560414739118</v>
       </c>
     </row>
     <row r="5">
@@ -3773,88 +3773,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1362696063918786</v>
+        <v>0.1460851928385863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1314968081866342</v>
+        <v>0.1432637354006508</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1420453659108127</v>
+        <v>0.1395784698167443</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1693384066053751</v>
+        <v>0.142984036708258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2145828972732355</v>
+        <v>0.1394523991633786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1433219027067786</v>
+        <v>0.1368703727420529</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1042509152245718</v>
+        <v>0.1096084158437658</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1364937813109763</v>
+        <v>0.1272612561803131</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1308484033365103</v>
+        <v>0.1133966475392937</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1485791307042837</v>
+        <v>0.09350320391403449</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1550163399117109</v>
+        <v>0.1009440499604458</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1382193467195467</v>
+        <v>0.1131897623469976</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1689568094986641</v>
+        <v>0.109336522966528</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1886568891077476</v>
+        <v>0.1151979599515113</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1727327859450472</v>
+        <v>0.1157702504651697</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07199109643722693</v>
+        <v>0.1185223911051777</v>
       </c>
       <c r="R5" t="n">
-        <v>0.04092266761527784</v>
+        <v>0.1009389652428524</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01953027855056</v>
+        <v>0.1110750219579398</v>
       </c>
       <c r="T5" t="n">
-        <v>0.042797128012783</v>
+        <v>0.05936441602258317</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02811154159795593</v>
+        <v>0.09292658816913321</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0441685231837536</v>
+        <v>0.1583296271136311</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02987230630346731</v>
+        <v>0.1976627081651967</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02435500993261529</v>
+        <v>0.1945009762636079</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003899951497658584</v>
+        <v>0.1577487249839854</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001496128721380589</v>
+        <v>0.08712240740697787</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001213434996196283</v>
+        <v>0.05180606898430606</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001205899737625989</v>
+        <v>0.02683192690744093</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.96155429809481e-06</v>
+        <v>0.0163517424278698</v>
       </c>
     </row>
     <row r="6">
@@ -3864,88 +3864,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1526415350565182</v>
+        <v>0.1379600740308073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603168548594095</v>
+        <v>0.1422588510348566</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1432815587829532</v>
+        <v>0.1474826726999068</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1194359631868284</v>
+        <v>0.142137173990078</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08194565174182558</v>
+        <v>0.1476711090963524</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1396482222024511</v>
+        <v>0.1471523576776498</v>
       </c>
       <c r="H6" t="n">
-        <v>0.176999562901228</v>
+        <v>0.1731963972396652</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1461013116202552</v>
+        <v>0.1566616680016106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09826955190262401</v>
+        <v>0.172604149425466</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1889507307867263</v>
+        <v>0.1932801393894752</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1490052911870695</v>
+        <v>0.1917700679078479</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2020878994235743</v>
+        <v>0.1918758212665505</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1827409781223941</v>
+        <v>0.213991632207237</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1891820565345147</v>
+        <v>0.179568262532773</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2087460394986738</v>
+        <v>0.124439850075293</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.31226968813261</v>
+        <v>0.0912337382816302</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3474325310883364</v>
+        <v>0.06288149483914669</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3716240787817109</v>
+        <v>0.08807770393242806</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3989087152990836</v>
+        <v>0.01589580987478163</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4306709281801923</v>
+        <v>0.01981682011431539</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4882594264034453</v>
+        <v>0.04102594186181138</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4817088669878647</v>
+        <v>0.07070307815867248</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6194136717293582</v>
+        <v>0.1286969211772677</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6468324076659623</v>
+        <v>0.1551392431952782</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6463810744352112</v>
+        <v>0.2246518593345707</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6573753260284144</v>
+        <v>0.2451403613545478</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6521156386725508</v>
+        <v>0.2591752785644306</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7311449527180354</v>
+        <v>0.2642339929242581</v>
       </c>
     </row>
     <row r="7">
@@ -3955,88 +3955,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1412397023664597</v>
+        <v>0.1437337988268804</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13955580846871</v>
+        <v>0.1429517580460821</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1433575075666851</v>
+        <v>0.1422711040907229</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1258554205220409</v>
+        <v>0.1433622063030058</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09505147353678806</v>
+        <v>0.1422428361280918</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1447614562000315</v>
+        <v>0.146297506387638</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1669955159832129</v>
+        <v>0.1617278534357985</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1487072037411701</v>
+        <v>0.1514482798507027</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2226202128272046</v>
+        <v>0.1569095812325339</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07983867794820595</v>
+        <v>0.1666881515370386</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1319550330577188</v>
+        <v>0.1590271365340542</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07162466929353582</v>
+        <v>0.1418301743572623</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0696154306865551</v>
+        <v>0.1137639401567322</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02630935685230556</v>
+        <v>0.1598823067078863</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005254040509904218</v>
+        <v>0.2519704834163478</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008611360600315376</v>
+        <v>0.3084973700231213</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001931688754652234</v>
+        <v>0.3825909860825453</v>
       </c>
       <c r="S7" t="n">
-        <v>2.617360933181998e-05</v>
+        <v>0.3252883138702805</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002386364598633774</v>
+        <v>0.5477973864950788</v>
       </c>
       <c r="U7" t="n">
-        <v>1.17251305623597e-05</v>
+        <v>0.4884401162421516</v>
       </c>
       <c r="V7" t="n">
-        <v>3.031543520300764e-06</v>
+        <v>0.3478765144633211</v>
       </c>
       <c r="W7" t="n">
-        <v>1.022930250479607e-06</v>
+        <v>0.2295087444628729</v>
       </c>
       <c r="X7" t="n">
-        <v>2.324197731046205e-07</v>
+        <v>0.104032615882952</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.099614145957162e-08</v>
+        <v>0.04954366639004518</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.981185869314338e-10</v>
+        <v>0.0119220284993614</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.781710420776706e-11</v>
+        <v>0.005660909309502919</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.151780629615331e-11</v>
+        <v>0.002065011842721117</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.135504545574792e-13</v>
+        <v>0.001008518314206934</v>
       </c>
     </row>
     <row r="8">
@@ -4046,88 +4046,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1522763428436265</v>
+        <v>0.1381594164971575</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1595841965512838</v>
+        <v>0.1422805544581679</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1433659785869336</v>
+        <v>0.1473411590034657</v>
       </c>
       <c r="E8" t="n">
-        <v>0.119704910753432</v>
+        <v>0.1422331867300287</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08238344473459368</v>
+        <v>0.1475207816448178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1399250303719835</v>
+        <v>0.1471675514946653</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1767979338031535</v>
+        <v>0.1728573043914338</v>
       </c>
       <c r="I8" t="n">
-        <v>0.146295568061723</v>
+        <v>0.1565285611493748</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09864395778747173</v>
+        <v>0.1720664653910094</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1891687348789575</v>
+        <v>0.1923400812235671</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1494647522493806</v>
+        <v>0.1910761528336609</v>
       </c>
       <c r="M8" t="n">
-        <v>0.20204211228248</v>
+        <v>0.1914523608666798</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1832276494011163</v>
+        <v>0.2132798073753376</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1911488655472203</v>
+        <v>0.1792636408298428</v>
       </c>
       <c r="P8" t="n">
-        <v>0.211907162308597</v>
+        <v>0.1245446512364117</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3035040996376315</v>
+        <v>0.09227968564904128</v>
       </c>
       <c r="R8" t="n">
-        <v>0.333591969529531</v>
+        <v>0.06400605085678954</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3551000523025653</v>
+        <v>0.08885329482123859</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3127920514968887</v>
+        <v>0.01632052545253129</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3264758709271113</v>
+        <v>0.02087413999859332</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2856061571264326</v>
+        <v>0.04146629437265874</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3086976931369135</v>
+        <v>0.07797753910177121</v>
       </c>
       <c r="X8" t="n">
-        <v>0.254251547364582</v>
+        <v>0.1687071593967294</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.246471263344047</v>
+        <v>0.243760404411298</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2575137691286757</v>
+        <v>0.3440764212327658</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2177656873329326</v>
+        <v>0.3581057991233436</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2405354057269808</v>
+        <v>0.3689755300938592</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1740535292610661</v>
+        <v>0.36851463959155</v>
       </c>
     </row>
   </sheetData>
@@ -4242,88 +4242,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1453163347879265</v>
+        <v>0.1415073518747481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1436355215859741</v>
+        <v>0.1390887141236916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1440021724924303</v>
+        <v>0.1413065578661051</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1703562236727303</v>
+        <v>0.141623599146845</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1769956627377994</v>
+        <v>0.1449621300182929</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1783132361229835</v>
+        <v>0.1581453849058408</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1846896692186127</v>
+        <v>0.1333655854012908</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1010785903495905</v>
+        <v>0.1374555385413196</v>
       </c>
       <c r="J2" t="n">
-        <v>0.103283981055822</v>
+        <v>0.1193024113299064</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1099382287101648</v>
+        <v>0.1076232268355776</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1216014780961863</v>
+        <v>0.1240761068282283</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0960773925694814</v>
+        <v>0.1353810537101544</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1050558569260161</v>
+        <v>0.1603298993640828</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07326232899426892</v>
+        <v>0.1519267288401353</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03413212144160137</v>
+        <v>0.1341875975484855</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07088383250786699</v>
+        <v>0.1485727634548303</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05068053290169842</v>
+        <v>0.2092015756820946</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01774606301817937</v>
+        <v>0.1812405424324867</v>
       </c>
       <c r="T2" t="n">
-        <v>0.009912642523699266</v>
+        <v>0.2054324254589713</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004795178298736513</v>
+        <v>0.213341799126218</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002822757211477434</v>
+        <v>0.2300646112306683</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001518295098477755</v>
+        <v>0.1074823413597855</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0006107626025148984</v>
+        <v>0.1616140662721909</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001049161501139084</v>
+        <v>0.1876043542454307</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.379907747437649e-05</v>
+        <v>0.2497474700869433</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.068235235620327e-05</v>
+        <v>0.2803661331545709</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.910922792786091e-06</v>
+        <v>0.242783332846144</v>
       </c>
       <c r="AC2" t="n">
-        <v>3.406676630978081e-10</v>
+        <v>0.1941492090212625</v>
       </c>
     </row>
     <row r="3">
@@ -4333,88 +4333,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1345467591613349</v>
+        <v>0.1472998918156074</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1422972460538015</v>
+        <v>0.154171188222738</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1430529658477564</v>
+        <v>0.1501678179888074</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09593307885694254</v>
+        <v>0.1515946984971989</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09449239811627519</v>
+        <v>0.1407473823589795</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09965852856613346</v>
+        <v>0.1166691311388835</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019427193777727</v>
+        <v>0.1581885614539096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2287266815921412</v>
+        <v>0.1614704685593308</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2978256631192785</v>
+        <v>0.1896138854948166</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116744315536386</v>
+        <v>0.2145446821013867</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2913635885447444</v>
+        <v>0.0911580508098742</v>
       </c>
       <c r="M3" t="n">
-        <v>0.393880720764879</v>
+        <v>0.1219391840989522</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3669751216800443</v>
+        <v>0.1043234289052793</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4654243309964532</v>
+        <v>0.0536976458149817</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5984757564863062</v>
+        <v>0.0298773110650839</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4794235133657553</v>
+        <v>0.009494635385932015</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5173420848013983</v>
+        <v>0.01247485389718059</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5935458943817895</v>
+        <v>0.006320122494439734</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6352295489021765</v>
+        <v>0.02089918248110838</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6422482143577254</v>
+        <v>0.02950440721109066</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6333923797068266</v>
+        <v>0.05901022798260198</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6078912277123072</v>
+        <v>0.01045552221743365</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6163876056681127</v>
+        <v>0.01051958060932809</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6431039408525696</v>
+        <v>0.02238695442636456</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6673995244446314</v>
+        <v>0.04080995914862979</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6424770656670717</v>
+        <v>0.09081151284980649</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.665099107586409</v>
+        <v>0.150524102333119</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6872366561633114</v>
+        <v>0.2130754641683253</v>
       </c>
     </row>
     <row r="4">
@@ -4424,88 +4424,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1345467469622835</v>
+        <v>0.1472998984974726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1422972434449971</v>
+        <v>0.1541712062928441</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1430529626007215</v>
+        <v>0.1501678268387222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09593358243998371</v>
+        <v>0.1515947072039016</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09449317403347687</v>
+        <v>0.1407473752209195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09965959527519215</v>
+        <v>0.1166693961970232</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1019442356777742</v>
+        <v>0.1581882145404969</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2287286702715271</v>
+        <v>0.1614710032361354</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1568296729166617</v>
+        <v>0.1896143294619138</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1205014555127748</v>
+        <v>0.2145461265843001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1001074236268098</v>
+        <v>0.2877519229089166</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04836828165123197</v>
+        <v>0.2353135712261617</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03505434904446762</v>
+        <v>0.2062778261053106</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01954396775127851</v>
+        <v>0.2713807403574565</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006409876545352095</v>
+        <v>0.3251244814804782</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01536150365390557</v>
+        <v>0.3307874159786643</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00523593355563327</v>
+        <v>0.2437665752350419</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0002156780331946488</v>
+        <v>0.2988453340968897</v>
       </c>
       <c r="T4" t="n">
-        <v>8.680301439093021e-05</v>
+        <v>0.2389700580057148</v>
       </c>
       <c r="U4" t="n">
-        <v>1.706441586060852e-05</v>
+        <v>0.2147879644361527</v>
       </c>
       <c r="V4" t="n">
-        <v>4.098073221989604e-06</v>
+        <v>0.1580851754667539</v>
       </c>
       <c r="W4" t="n">
-        <v>5.433527415873603e-07</v>
+        <v>0.3834972519436713</v>
       </c>
       <c r="X4" t="n">
-        <v>7.252658159824389e-08</v>
+        <v>0.2614227589112585</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.369204924990472e-09</v>
+        <v>0.1989964195867086</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.119492542667502e-10</v>
+        <v>0.08936506522811659</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.792554256457619e-11</v>
+        <v>0.02858929205421274</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.559369507362304e-12</v>
+        <v>0.01327551319532876</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.030861241760236e-14</v>
+        <v>0.005554686025950018</v>
       </c>
     </row>
     <row r="5">
@@ -4515,88 +4515,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1345421547332676</v>
+        <v>0.1473024138521954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1422962612086789</v>
+        <v>0.1541780088066528</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1430517399362406</v>
+        <v>0.1501711581180959</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09592391983330432</v>
+        <v>0.1515979843472739</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09447876267439705</v>
+        <v>0.1407446878069444</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09964005299537207</v>
+        <v>0.1166624307960346</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1019168125771165</v>
+        <v>0.1581911194563785</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2286918464436752</v>
+        <v>0.1614584264635556</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2357677184544109</v>
+        <v>0.1896027743166099</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2524921484659687</v>
+        <v>0.2145165782852592</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2807170557025131</v>
+        <v>0.2453389937014329</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2245800205838562</v>
+        <v>0.2697894830625563</v>
       </c>
       <c r="N5" t="n">
-        <v>0.24719105875822</v>
+        <v>0.3203209629895687</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1714941948523548</v>
+        <v>0.300949959077415</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07923080364528681</v>
+        <v>0.2639265299616148</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.165712498783219</v>
+        <v>0.2931606332993413</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1167821982978438</v>
+        <v>0.4102857244187515</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0395542826739372</v>
+        <v>0.3578453977176715</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02082495547508863</v>
+        <v>0.4021844608444164</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008652902944526166</v>
+        <v>0.4163771707676934</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004421795299935923</v>
+        <v>0.4201701958495683</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001878366248975857</v>
+        <v>0.3114074917466782</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006350767693875618</v>
+        <v>0.411798770215456</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.165033097460932e-05</v>
+        <v>0.4463289739103952</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.949709160877861e-05</v>
+        <v>0.4899238665302819</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.261021054901423e-06</v>
+        <v>0.404604898723118</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.264657718956162e-06</v>
+        <v>0.3155489940328507</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.164628792572037e-12</v>
+        <v>0.2287562908397741</v>
       </c>
     </row>
     <row r="6">
@@ -4606,88 +4606,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1554993266598535</v>
+        <v>0.1361395775628703</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1430574651343959</v>
+        <v>0.1261074133827151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1412784764861789</v>
+        <v>0.1310782195509595</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1849805711767571</v>
+        <v>0.1281162347636146</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1807097183373526</v>
+        <v>0.1445097931949598</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1719456369512211</v>
+        <v>0.1672029687270648</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1626257248597463</v>
+        <v>0.1300200285529731</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05764813738889484</v>
+        <v>0.1214516147700909</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03747691731998342</v>
+        <v>0.09757956512039086</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02741706746824175</v>
+        <v>0.07250403653849671</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02181849738286441</v>
+        <v>0.09728190691556912</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00994459580966269</v>
+        <v>0.07703182697382964</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006743491165620005</v>
+        <v>0.06343581032908072</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003549423568862898</v>
+        <v>0.08671423975119801</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001067952440119716</v>
+        <v>0.1083151324902758</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002438374216601028</v>
+        <v>0.1019172822386231</v>
       </c>
       <c r="R6" t="n">
-        <v>0.000673862768654464</v>
+        <v>0.05179360370191921</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33379499351938e-05</v>
+        <v>0.07092498047141434</v>
       </c>
       <c r="T6" t="n">
-        <v>5.86216640547361e-06</v>
+        <v>0.05211971576788382</v>
       </c>
       <c r="U6" t="n">
-        <v>1.480257919999893e-06</v>
+        <v>0.04496212106086506</v>
       </c>
       <c r="V6" t="n">
-        <v>4.62443119214891e-07</v>
+        <v>0.03678251752023206</v>
       </c>
       <c r="W6" t="n">
-        <v>8.961446455320062e-08</v>
+        <v>0.08464121224791853</v>
       </c>
       <c r="X6" t="n">
-        <v>1.658859925613149e-08</v>
+        <v>0.07222335118292023</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.882178794052137e-10</v>
+        <v>0.06225498645503528</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.460108819861371e-10</v>
+        <v>0.03745192485786002</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.418352707029553e-12</v>
+        <v>0.01222988841517826</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.008723239342462e-13</v>
+        <v>0.005767275572253993</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.508095448584284e-15</v>
+        <v>0.002457721539649101</v>
       </c>
     </row>
     <row r="7">
@@ -4697,88 +4697,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1405623195656747</v>
+        <v>0.1440411606734101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432841067988772</v>
+        <v>0.1455447079800303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1440586587684976</v>
+        <v>0.1454729850178505</v>
       </c>
       <c r="E7" t="n">
-        <v>0.172133098966902</v>
+        <v>0.1465844311608275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1779699320244967</v>
+        <v>0.1436378973579664</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1783848902220005</v>
+        <v>0.1575771402641678</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1833423187933108</v>
+        <v>0.1318268688182564</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09638665862251948</v>
+        <v>0.1346814431458226</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1304821429543035</v>
+        <v>0.1160349204241212</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1498318939702135</v>
+        <v>0.1028313775903914</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1619240053969581</v>
+        <v>0.05585597832142038</v>
       </c>
       <c r="M7" t="n">
-        <v>0.216865488747147</v>
+        <v>0.08233968436786715</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2319727168276549</v>
+        <v>0.08060881185795787</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2630070139840798</v>
+        <v>0.04712543816183873</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2795508658560669</v>
+        <v>0.028726586505611</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2635687716459298</v>
+        <v>0.01145964869863792</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3085417500806155</v>
+        <v>0.01599902272536962</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3489083854488687</v>
+        <v>0.008737217104426154</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3339334125609262</v>
+        <v>0.02380967158801381</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3442837145014906</v>
+        <v>0.03192084042003732</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3593581286864895</v>
+        <v>0.05847050701733449</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3887114212640339</v>
+        <v>0.01028492344228466</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3823664574062382</v>
+        <v>0.01475685481212516</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3567094881014971</v>
+        <v>0.0287369866859678</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3325271785518067</v>
+        <v>0.06618144844711743</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3575079909348038</v>
+        <v>0.1746115829808763</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3348957168308976</v>
+        <v>0.2679123400531685</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3127633434888423</v>
+        <v>0.354198908572397</v>
       </c>
     </row>
     <row r="8">
@@ -4788,88 +4788,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1549863581296593</v>
+        <v>0.1364097057236961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.143132155773275</v>
+        <v>0.126738761191328</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1415030238681746</v>
+        <v>0.1316354346194594</v>
       </c>
       <c r="E8" t="n">
-        <v>0.18473952505338</v>
+        <v>0.1288883448803384</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1808603520762022</v>
+        <v>0.1446507340419375</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1723980598670971</v>
+        <v>0.1670735479709852</v>
       </c>
       <c r="H8" t="n">
-        <v>0.163538519495667</v>
+        <v>0.1302196217766948</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05873941533165191</v>
+        <v>0.1220115052837451</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03833390417953999</v>
+        <v>0.09825211385224149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02814477431899802</v>
+        <v>0.07343397206458804</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02246795124992394</v>
+        <v>0.09853704051455843</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01028349987374171</v>
+        <v>0.0782051965604785</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007007405597976943</v>
+        <v>0.06470326044871988</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003718739852701922</v>
+        <v>0.08820524799697491</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001132623585266932</v>
+        <v>0.1098423609484508</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002611505826722573</v>
+        <v>0.104607620943971</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0007436375941562068</v>
+        <v>0.05647864433964261</v>
       </c>
       <c r="S8" t="n">
-        <v>1.6358494095254e-05</v>
+        <v>0.07608640568267161</v>
       </c>
       <c r="T8" t="n">
-        <v>6.775357312916064e-06</v>
+        <v>0.05658448585389139</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44522374084686e-06</v>
+        <v>0.04910569697794278</v>
       </c>
       <c r="V8" t="n">
-        <v>3.785789293147333e-07</v>
+        <v>0.03741676493284113</v>
       </c>
       <c r="W8" t="n">
-        <v>5.670899893622415e-08</v>
+        <v>0.09223125704222819</v>
       </c>
       <c r="X8" t="n">
-        <v>8.438565764649574e-09</v>
+        <v>0.06766461799672127</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.074219443378168e-10</v>
+        <v>0.05369132469009782</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.651860974902604e-11</v>
+        <v>0.02652026570105102</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.369258968706046e-12</v>
+        <v>0.008786691822237297</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.21309562748832e-13</v>
+        <v>0.004188441967134998</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.325671255870402e-15</v>
+        <v>0.00180771983264184</v>
       </c>
     </row>
   </sheetData>
@@ -4984,88 +4984,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.140353510858965</v>
+        <v>0.1442034000021214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1390059209646838</v>
+        <v>0.1449068988490871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1413891883887258</v>
+        <v>0.145983780375312</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1620187628074012</v>
+        <v>0.147163282770032</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1729902033194942</v>
+        <v>0.1474778767103495</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1928933996552582</v>
+        <v>0.1225461779010307</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928746271919498</v>
+        <v>0.1490596921827382</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1734542578643313</v>
+        <v>0.1769249831335331</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1977302869509892</v>
+        <v>0.1927454598726704</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2347342420686287</v>
+        <v>0.2063376876685382</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2030290387646706</v>
+        <v>0.1855559958374651</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2199077672534399</v>
+        <v>0.207318227623321</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2035549329085111</v>
+        <v>0.1898167254069808</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2303048700560718</v>
+        <v>0.1460038102041858</v>
       </c>
       <c r="P2" t="n">
-        <v>0.183246496295408</v>
+        <v>0.1276505828389647</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07535467380002003</v>
+        <v>0.1142258724886218</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06340926484505489</v>
+        <v>0.07520893679318748</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0938796137105794</v>
+        <v>0.04948469328242389</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08254375429265896</v>
+        <v>0.0300711361890754</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008606333749163137</v>
+        <v>0.03374767616813328</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005229295506538592</v>
+        <v>0.02386603298296118</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02216943270060909</v>
+        <v>0.04047051592319553</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005873177769163682</v>
+        <v>0.02666931115463576</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002079333333419902</v>
+        <v>0.00811207119034613</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.649293205750947e-08</v>
+        <v>0.003208618987066578</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.177264092324175e-09</v>
+        <v>0.0003692924758028699</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.39265022657928e-10</v>
+        <v>0.0001521508570368046</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.799896972530679e-11</v>
+        <v>6.831568653981295e-05</v>
       </c>
     </row>
     <row r="3">
@@ -5075,88 +5075,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1506859722665359</v>
+        <v>0.1359461623578773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1555132384914087</v>
+        <v>0.1361166845605773</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1483341163793432</v>
+        <v>0.1296298231412936</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1136884191236345</v>
+        <v>0.1217677785126331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1078014941597259</v>
+        <v>0.1190836570369433</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06568582903381109</v>
+        <v>0.1616017920586039</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05328611966508125</v>
+        <v>0.1092394581437462</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09813070554693686</v>
+        <v>0.05812483348158808</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01723671033978917</v>
+        <v>0.04656787803252537</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01335426425855269</v>
+        <v>0.02621238015893048</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007257394443567206</v>
+        <v>0.01402785616692325</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01338222916260464</v>
+        <v>0.01506706199383756</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006241391791747245</v>
+        <v>0.01000096008046884</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002014362153023824</v>
+        <v>0.003865919176499458</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0006098284865647942</v>
+        <v>0.002552537897120141</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.149300954028382e-07</v>
+        <v>0.001833124395145271</v>
       </c>
       <c r="R3" t="n">
-        <v>1.217676023561364e-07</v>
+        <v>0.0002248486015739104</v>
       </c>
       <c r="S3" t="n">
-        <v>4.980099060497496e-07</v>
+        <v>8.561857616609492e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>9.197840344051481e-08</v>
+        <v>1.908127384474934e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>2.437287374125793e-09</v>
+        <v>1.049440483045061e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>4.477740807237107e-10</v>
+        <v>2.670544723466809e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>6.846399257065682e-10</v>
+        <v>1.357874335675047e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>7.899917103870527e-11</v>
+        <v>6.012323428151067e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.905963021439301e-11</v>
+        <v>1.057255625664935e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.18829679528784e-14</v>
+        <v>2.829543412099564e-08</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.677880641008791e-15</v>
+        <v>3.555089671978608e-09</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.50116769833587e-17</v>
+        <v>1.086946350023109e-09</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.229255299172317e-18</v>
+        <v>3.857436464781844e-10</v>
       </c>
     </row>
     <row r="4">
@@ -5166,88 +5166,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1506859844279431</v>
+        <v>0.135946153995402</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1555132573446338</v>
+        <v>0.1361166743686693</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1483341238674208</v>
+        <v>0.1296298056164736</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1136888558118363</v>
+        <v>0.121767752422883</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1078023596398655</v>
+        <v>0.1190836282251935</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06568668095067201</v>
+        <v>0.1616007485537375</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05328686607037843</v>
+        <v>0.1092392619180674</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09813149870175079</v>
+        <v>0.05812518840151024</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1307166747231404</v>
+        <v>0.04656841278504282</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1235612202326919</v>
+        <v>0.02621285826074296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1383764807225711</v>
+        <v>0.03062074096044778</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1280133342875263</v>
+        <v>0.0287067800363237</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1414361360345328</v>
+        <v>0.03117510103234747</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1448726046710633</v>
+        <v>0.03497953093703447</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1623054815566942</v>
+        <v>0.0358670943691209</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1838196380183069</v>
+        <v>0.03585709981804235</v>
       </c>
       <c r="R4" t="n">
-        <v>0.183420680775312</v>
+        <v>0.03826605970530126</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1861903876846235</v>
+        <v>0.03584771906543908</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1678902205201773</v>
+        <v>0.03681301680725856</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2147248105522515</v>
+        <v>0.04405105946338765</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1782386708641167</v>
+        <v>0.03887237185340512</v>
       </c>
       <c r="W4" t="n">
-        <v>0.115182444170273</v>
+        <v>0.02949764634950432</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1006639413307973</v>
+        <v>0.03508202952676827</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1081261334094381</v>
+        <v>0.05220817300698724</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1060538937858845</v>
+        <v>0.08641591608619549</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09503921655730753</v>
+        <v>0.1019520117207641</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1143062136346011</v>
+        <v>0.1089278231939236</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05335426686928122</v>
+        <v>0.1159976022807678</v>
       </c>
     </row>
     <row r="5">
@@ -5257,88 +5257,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1506905625682889</v>
+        <v>0.1359430061537366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1555203544982925</v>
+        <v>0.1361128376659368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1483369426188968</v>
+        <v>0.1296232086814975</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1136834812238483</v>
+        <v>0.1217579315364023</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1077893707018454</v>
+        <v>0.1190727827611493</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06567309260461285</v>
+        <v>0.1616035929538585</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0532748760525947</v>
+        <v>0.1092322824642549</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09811958178574133</v>
+        <v>0.05811344472177217</v>
       </c>
       <c r="J5" t="n">
-        <v>0.111054246130761</v>
+        <v>0.04655462683649113</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1321781277427459</v>
+        <v>0.02620200294285523</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1135882812462532</v>
+        <v>0.02340272232119455</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1236136002115505</v>
+        <v>0.02626306553280613</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1135617347097721</v>
+        <v>0.02394227971391667</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1287620076506658</v>
+        <v>0.01823266218677919</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1035074375217014</v>
+        <v>0.0158780547393561</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04405865757599076</v>
+        <v>0.01424124507418315</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0372268371265528</v>
+        <v>0.009557362779122574</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05462904375150478</v>
+        <v>0.006331732434283582</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05687308886423917</v>
+        <v>0.003905425790522406</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01141623572934534</v>
+        <v>0.00441477563688198</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008813688241631482</v>
+        <v>0.003644965548738223</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03636101140736125</v>
+        <v>0.006439043920647634</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01218721211929602</v>
+        <v>0.004546896884140356</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.004776292709696404</v>
+        <v>0.001574067828552389</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.291754256829778e-06</v>
+        <v>0.0006770958024449965</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.156440340909376e-06</v>
+        <v>7.08097372232404e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.765486481669744e-08</v>
+        <v>3.16583664480585e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.872676151541911e-09</v>
+        <v>1.52144748385744e-05</v>
       </c>
     </row>
     <row r="6">
@@ -5348,88 +5348,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1311540983208403</v>
+        <v>0.1540973467259959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1237148686033728</v>
+        <v>0.1530437715009366</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1343562990392054</v>
+        <v>0.1637909962071657</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1650171413962835</v>
+        <v>0.1769474112138465</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1630342256943325</v>
+        <v>0.1815292571550545</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2051828505941586</v>
+        <v>0.1415729437444933</v>
       </c>
       <c r="H6" t="n">
-        <v>0.223398188426367</v>
+        <v>0.1946514128018901</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1767165430831784</v>
+        <v>0.2444625287298959</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2372477594670976</v>
+        <v>0.2466734908918088</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2156070911387666</v>
+        <v>0.2638467624920703</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2494896624358235</v>
+        <v>0.3180478059074864</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2270129139935917</v>
+        <v>0.2919869752219044</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2508068026518839</v>
+        <v>0.3239693732794864</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2383997024807699</v>
+        <v>0.3788221360287258</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2707457546597122</v>
+        <v>0.3965056690123663</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3485524331615413</v>
+        <v>0.409470324894068</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3588051345323462</v>
+        <v>0.4411038029671775</v>
       </c>
       <c r="S6" t="n">
-        <v>0.331168537041445</v>
+        <v>0.4616503968938354</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3668621506316134</v>
+        <v>0.4713838787505971</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3662704956349934</v>
+        <v>0.4563172846493634</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4248976970727551</v>
+        <v>0.488475128742279</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5301233156936636</v>
+        <v>0.5417076729947844</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5673524287878502</v>
+        <v>0.514993605904468</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5771206221423115</v>
+        <v>0.4084094930219822</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.5798435147179603</v>
+        <v>0.2953715947307062</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5725707475371385</v>
+        <v>0.3104782557995972</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6120746197208281</v>
+        <v>0.3150513412063295</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5520134839751725</v>
+        <v>0.3192250909950987</v>
       </c>
     </row>
     <row r="7">
@@ -5439,88 +5439,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1448214369221073</v>
+        <v>0.140327857034276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1462543466256413</v>
+        <v>0.1410714179565949</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1445300984624733</v>
+        <v>0.1385253132395221</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1667632896934591</v>
+        <v>0.1353272606555005</v>
       </c>
       <c r="F7" t="n">
-        <v>0.176983031374768</v>
+        <v>0.1341610751654534</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1996953491549169</v>
+        <v>0.1107666765188393</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2011166173691711</v>
+        <v>0.1363451098059639</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1785896400286267</v>
+        <v>0.1630587416800081</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06869790407053419</v>
+        <v>0.176777243934148</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06427271277120111</v>
+        <v>0.1898090756951532</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03856863031724144</v>
+        <v>0.1139824893057072</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06060648335572123</v>
+        <v>0.1416203026323647</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03304272278690651</v>
+        <v>0.1008962089901054</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01396275672851669</v>
+        <v>0.04476979496074025</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004847153193145761</v>
+        <v>0.03137575926689505</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.145622640316497e-06</v>
+        <v>0.0233512815780454</v>
       </c>
       <c r="R7" t="n">
-        <v>4.306554076274866e-06</v>
+        <v>0.00318986333357065</v>
       </c>
       <c r="S7" t="n">
-        <v>1.47829990075449e-05</v>
+        <v>0.001310819216324426</v>
       </c>
       <c r="T7" t="n">
-        <v>3.110214245252411e-06</v>
+        <v>0.0003258764950143377</v>
       </c>
       <c r="U7" t="n">
-        <v>7.538319258112102e-08</v>
+        <v>0.0001981593263795214</v>
       </c>
       <c r="V7" t="n">
-        <v>1.526295149222204e-08</v>
+        <v>5.589951129686064e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.631144733928565e-08</v>
+        <v>3.235734221109542e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>3.230160965403908e-09</v>
+        <v>1.494037051557702e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.041651022949877e-10</v>
+        <v>2.758013432051046e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.86132579744598e-13</v>
+        <v>7.652475808449122e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.106159150765352e-14</v>
+        <v>9.673207061854254e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.863238760532135e-15</v>
+        <v>3.028485519638677e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.13063060173565e-17</v>
+        <v>1.094202149629597e-08</v>
       </c>
     </row>
     <row r="8">
@@ -5530,88 +5530,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1316084346353195</v>
+        <v>0.1535360737305907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1244780134719671</v>
+        <v>0.1526317150981979</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1347192312439349</v>
+        <v>0.1628170727387356</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1651400499435369</v>
+        <v>0.1752685828887029</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635993151099685</v>
+        <v>0.1795917229458565</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2051827980065705</v>
+        <v>0.1403080682694369</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2227627052244578</v>
+        <v>0.1922327826833394</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1768577729894346</v>
+        <v>0.2411902798516925</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2373164183176885</v>
+        <v>0.2441128876473133</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2162923417874132</v>
+        <v>0.2613792327817095</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2496905120698729</v>
+        <v>0.3143623895007757</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2274636717355656</v>
+        <v>0.2890375869594426</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2513562791166463</v>
+        <v>0.3201993514966944</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2416836962598887</v>
+        <v>0.373326146506035</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2747378482867736</v>
+        <v>0.3901703018761767</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3482072368914053</v>
+        <v>0.4010210517518941</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3571336543990555</v>
+        <v>0.4324491258200665</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3341171368029337</v>
+        <v>0.4452890205315275</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3258275834986625</v>
+        <v>0.4574815846936875</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3989820465137667</v>
+        <v>0.4612605503510235</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3828206326042325</v>
+        <v>0.4450829308165961</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2961637690320058</v>
+        <v>0.3818514055953212</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3139232366837328</v>
+        <v>0.4186926149271293</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3078976175819092</v>
+        <v>0.5296933312131376</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3140962632486685</v>
+        <v>0.6143259808505718</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3323888732879062</v>
+        <v>0.5871295299794526</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2736190986504389</v>
+        <v>0.5758369950044605</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3946322452648711</v>
+        <v>0.5646937652349899</v>
       </c>
     </row>
   </sheetData>
